--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1169768.115004732</v>
+        <v>-1172448.978068139</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>308.3096364022066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>130.9062591387572</v>
       </c>
       <c r="U2" t="n">
-        <v>128.3719568604807</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -820,16 +820,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>114.620308461459</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>93.89254046638247</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -911,10 +911,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>257.4167824795475</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>170.1913092803352</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>185.9255194068906</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>216.1023026793904</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>119.6924837963203</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>340.9304793307492</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>57.63898702389222</v>
+        <v>42.28982998227336</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.7513807668944</v>
+        <v>54.32649042089511</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>129.3292263586721</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1813,16 +1813,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>111.3213230702152</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>103.7802572945519</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.52295781333198</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>152.0854776630165</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>84.07981473403045</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>30.06830131405788</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>99.97427419833861</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.330825526173</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1892.862156368994</v>
+        <v>1699.061860336089</v>
       </c>
       <c r="C2" t="n">
-        <v>1581.43828121525</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D2" t="n">
-        <v>1223.1725826085</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>837.3843300102556</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,46 +4334,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2305.411576342024</v>
       </c>
       <c r="U2" t="n">
-        <v>2223.925043712565</v>
+        <v>2051.830515606203</v>
       </c>
       <c r="V2" t="n">
-        <v>1892.862156368994</v>
+        <v>2051.830515606203</v>
       </c>
       <c r="W2" t="n">
-        <v>1892.862156368994</v>
+        <v>1699.061860336089</v>
       </c>
       <c r="X2" t="n">
-        <v>1892.862156368994</v>
+        <v>1699.061860336089</v>
       </c>
       <c r="Y2" t="n">
-        <v>1892.862156368994</v>
+        <v>1699.061860336089</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>1092.885047004313</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1456.147065963533</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1292.966125319478</v>
+        <v>1411.970906588913</v>
       </c>
       <c r="C4" t="n">
-        <v>1124.029942391571</v>
+        <v>1243.034723661006</v>
       </c>
       <c r="D4" t="n">
-        <v>1124.029942391571</v>
+        <v>1092.918084248671</v>
       </c>
       <c r="E4" t="n">
-        <v>1124.029942391571</v>
+        <v>1092.918084248671</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936612</v>
+        <v>1092.918084248671</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936612</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936612</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
         <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
         <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>2048.981932571482</v>
       </c>
       <c r="O4" t="n">
         <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>2508.006390496683</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>2365.710580560018</v>
       </c>
       <c r="T4" t="n">
-        <v>2467.498378434113</v>
+        <v>2365.710580560018</v>
       </c>
       <c r="U4" t="n">
-        <v>2467.498378434113</v>
+        <v>2365.710580560018</v>
       </c>
       <c r="V4" t="n">
-        <v>2212.813890228226</v>
+        <v>2111.026092354131</v>
       </c>
       <c r="W4" t="n">
-        <v>1923.396720191265</v>
+        <v>1821.60892231717</v>
       </c>
       <c r="X4" t="n">
-        <v>1695.407169293248</v>
+        <v>1593.619371419153</v>
       </c>
       <c r="Y4" t="n">
-        <v>1474.614590149718</v>
+        <v>1593.619371419153</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1136.221880202098</v>
+        <v>1158.553337363323</v>
       </c>
       <c r="C5" t="n">
-        <v>1136.221880202098</v>
+        <v>1158.553337363323</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953474</v>
+        <v>800.2876387565723</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>800.2876387565723</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057398</v>
+        <v>389.3017339669647</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>377.6373877316577</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4571,46 +4571,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>2265.729707512146</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="W5" t="n">
-        <v>1912.961052242031</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="X5" t="n">
-        <v>1912.961052242031</v>
+        <v>1935.292509403256</v>
       </c>
       <c r="Y5" t="n">
-        <v>1522.82172026622</v>
+        <v>1545.153177427444</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1468.399656105704</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1800.470091281866</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.1023241168326</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C7" t="n">
-        <v>350.1023241168326</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D7" t="n">
-        <v>199.9856847044969</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4732,7 +4732,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4744,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253779</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.115628253779</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W7" t="n">
-        <v>758.6984582168179</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="X7" t="n">
-        <v>570.8949032603628</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="Y7" t="n">
-        <v>350.1023241168326</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1500.227517577121</v>
+        <v>1357.104639024234</v>
       </c>
       <c r="C8" t="n">
-        <v>1131.26500063671</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D8" t="n">
-        <v>772.9993020299592</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E8" t="n">
-        <v>772.9993020299592</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>766.0538012807557</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
         <v>2360.886721764998</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847235</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.227517577121</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X8" t="n">
-        <v>1500.227517577121</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="Y8" t="n">
-        <v>1500.227517577121</v>
+        <v>1357.104639024234</v>
       </c>
     </row>
     <row r="9">
@@ -4857,55 +4857,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>168.0008189145207</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380235</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694952</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341572</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>367.0729169938204</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="C10" t="n">
-        <v>198.1367340659135</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.349301773071</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V10" t="n">
-        <v>1124.349301773071</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="W10" t="n">
-        <v>834.93213173611</v>
+        <v>1021.467062747854</v>
       </c>
       <c r="X10" t="n">
-        <v>606.9425808380927</v>
+        <v>793.4775118498371</v>
       </c>
       <c r="Y10" t="n">
-        <v>548.7213818240601</v>
+        <v>750.7605118677428</v>
       </c>
     </row>
     <row r="11">
@@ -5018,13 +5018,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,13 +5033,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5048,40 +5048,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,19 +5112,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249848</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M12" t="n">
         <v>1344.266747951537</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>718.550723916711</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>549.6145409888042</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179773</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2401.759668664206</v>
+        <v>2392.08784073087</v>
       </c>
       <c r="S13" t="n">
-        <v>2401.759668664206</v>
+        <v>2209.233006385774</v>
       </c>
       <c r="T13" t="n">
-        <v>2182.158203687148</v>
+        <v>1989.631541408715</v>
       </c>
       <c r="U13" t="n">
-        <v>1893.082977031346</v>
+        <v>1700.556314752913</v>
       </c>
       <c r="V13" t="n">
-        <v>1638.398488825459</v>
+        <v>1445.871826547026</v>
       </c>
       <c r="W13" t="n">
-        <v>1348.981318788498</v>
+        <v>1156.454656510065</v>
       </c>
       <c r="X13" t="n">
-        <v>1120.991767890481</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y13" t="n">
-        <v>900.1991887469508</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>620.6249953635655</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>473.7350478656551</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>306.5389485805351</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038363</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797765</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832665</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2399.970196900127</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2217.115362555031</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1997.513897577973</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,19 +5762,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2110.486554626058</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1821.411327970255</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1566.726839764368</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W22" t="n">
-        <v>1277.309669727408</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5981,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,22 +6309,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6853,10 +6853,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7111,34 +7111,34 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,13 +7570,13 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.9393975111056</v>
+        <v>114.3555089013356</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>240.4465442417431</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>54.95314511566602</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>231.2582814363232</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-3.589734841097749e-13</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-3.824271744423714e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>75.75192584147655</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6732932679813</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>322.0398311810673</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>126.8561555308295</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.62386594322724</v>
+        <v>12.04875628922655</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>10.9654864875518</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>106.084127257073</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>44.83521572366044</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>19.8522888967897</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>65.31997266427172</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>168.0578285897976</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>149.7636788678794</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>40.32043864788525</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-2.435829443713351e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152326.9268048896</v>
+        <v>152326.9268048895</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194636</v>
@@ -26320,13 +26320,13 @@
         <v>184734.3982194636</v>
       </c>
       <c r="E2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="F2" t="n">
         <v>181607.9849302513</v>
       </c>
       <c r="G2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="H2" t="n">
         <v>181607.9849302513</v>
@@ -26344,7 +26344,7 @@
         <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="N2" t="n">
         <v>184734.3982194636</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49700.31489448729</v>
+        <v>49700.31489448732</v>
       </c>
       <c r="C4" t="n">
         <v>131909.7268316249</v>
@@ -26424,40 +26424,40 @@
         <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707337</v>
       </c>
       <c r="F4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670733</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707315</v>
+        <v>6897.424496707389</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="J4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707374</v>
       </c>
       <c r="L4" t="n">
-        <v>14888.2837598008</v>
+        <v>14888.28375980083</v>
       </c>
       <c r="M4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980083</v>
       </c>
       <c r="N4" t="n">
-        <v>14888.28375980085</v>
+        <v>14888.28375980084</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980081</v>
       </c>
       <c r="P4" t="n">
-        <v>14888.28375980084</v>
+        <v>14888.28375980083</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984473</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.77243984473</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.77243984472</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.7724398447</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1105062.944105362</v>
+        <v>-1105423.02712108</v>
       </c>
       <c r="C6" t="n">
-        <v>-40113.10105200598</v>
+        <v>-40113.1010520061</v>
       </c>
       <c r="D6" t="n">
-        <v>-40113.1010520061</v>
+        <v>-40113.10105200579</v>
       </c>
       <c r="E6" t="n">
-        <v>-433897.4110149092</v>
+        <v>-433932.1489403447</v>
       </c>
       <c r="F6" t="n">
-        <v>73588.03060963703</v>
+        <v>73553.29268420115</v>
       </c>
       <c r="G6" t="n">
-        <v>73588.03060963692</v>
+        <v>73553.29268420135</v>
       </c>
       <c r="H6" t="n">
-        <v>73588.03060963692</v>
+        <v>73553.29268420115</v>
       </c>
       <c r="I6" t="n">
-        <v>73588.03060963695</v>
+        <v>73553.29268420121</v>
       </c>
       <c r="J6" t="n">
-        <v>-94017.14720034554</v>
+        <v>-94051.88512578138</v>
       </c>
       <c r="K6" t="n">
-        <v>73588.03060963684</v>
+        <v>73553.29268420118</v>
       </c>
       <c r="L6" t="n">
-        <v>47254.28061211556</v>
+        <v>47254.2806121156</v>
       </c>
       <c r="M6" t="n">
-        <v>-65925.29512317922</v>
+        <v>-65925.29512317921</v>
       </c>
       <c r="N6" t="n">
-        <v>66681.99860574753</v>
+        <v>66681.99860574739</v>
       </c>
       <c r="O6" t="n">
-        <v>66681.99860574745</v>
+        <v>66681.99860574747</v>
       </c>
       <c r="P6" t="n">
-        <v>66681.99860574736</v>
+        <v>66681.99860574733</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
         <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>56.9632553688009</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>5.712427289067648</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,16 +27540,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>51.68629158334517</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27585,10 +27585,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>43.60177008285785</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>157.5609491897997</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>39.78413598214655</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>2.482350672704371</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>245.5804079746872</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>70.61722344220482</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.9456663282026</v>
+        <v>176.2948233698214</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,28 +31282,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31318,7 +31318,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31367,10 +31367,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31379,7 +31379,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31440,19 +31440,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>297.1808238847171</v>
       </c>
       <c r="L12" t="n">
-        <v>309.7666854143565</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31865,7 +31865,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,22 +32315,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>308.1572428165614</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>436.6197581489558</v>
+        <v>412.0358695391859</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34936,28 +34936,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>631.6436438346171</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113678</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35100,7 +35100,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>117.9333660065834</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>622.4553810291972</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>159.3393849103582</v>
       </c>
       <c r="L12" t="n">
-        <v>171.2123056344823</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191315</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096369</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191315</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>165.5609983721169</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
